--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp9-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H2">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I2">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J2">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N2">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P2">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q2">
-        <v>0.0005666424146666667</v>
+        <v>0.007267610984444445</v>
       </c>
       <c r="R2">
-        <v>0.005099781731999999</v>
+        <v>0.06540849886</v>
       </c>
       <c r="S2">
-        <v>2.109000985196704E-07</v>
+        <v>2.119740466724526E-06</v>
       </c>
       <c r="T2">
-        <v>2.109000985196704E-07</v>
+        <v>2.119740466724525E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H3">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I3">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J3">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.37879</v>
       </c>
       <c r="O3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P3">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q3">
-        <v>0.2474199022533333</v>
+        <v>1.140087243533333</v>
       </c>
       <c r="R3">
-        <v>2.22677912028</v>
+        <v>10.2607851918</v>
       </c>
       <c r="S3">
-        <v>9.208785013322938E-05</v>
+        <v>0.0003325286770145918</v>
       </c>
       <c r="T3">
-        <v>9.208785013322938E-05</v>
+        <v>0.0003325286770145916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H4">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I4">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J4">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N4">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P4">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q4">
-        <v>0.02162345666177778</v>
+        <v>0.001342418273333333</v>
       </c>
       <c r="R4">
-        <v>0.194611109956</v>
+        <v>0.01208176446</v>
       </c>
       <c r="S4">
-        <v>8.048089981028782E-06</v>
+        <v>3.915424674416108E-07</v>
       </c>
       <c r="T4">
-        <v>8.048089981028782E-06</v>
+        <v>3.915424674416106E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H5">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I5">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J5">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05870933333333334</v>
+        <v>0.208416</v>
       </c>
       <c r="N5">
-        <v>0.176128</v>
+        <v>0.625248</v>
       </c>
       <c r="O5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P5">
-        <v>0.009214823074225033</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q5">
-        <v>0.002507514766222223</v>
+        <v>0.04101765824</v>
       </c>
       <c r="R5">
-        <v>0.022567632896</v>
+        <v>0.36915892416</v>
       </c>
       <c r="S5">
-        <v>9.332783737110252E-07</v>
+        <v>1.196359989654167E-05</v>
       </c>
       <c r="T5">
-        <v>9.332783737110252E-07</v>
+        <v>1.196359989654167E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.781812333333333</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H6">
-        <v>14.345437</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I6">
-        <v>0.01133914682152003</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J6">
-        <v>0.01133914682152003</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013267</v>
+        <v>0.050388</v>
       </c>
       <c r="N6">
-        <v>0.039801</v>
+        <v>0.151164</v>
       </c>
       <c r="O6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P6">
-        <v>0.00208234450613889</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q6">
-        <v>0.06344030422633333</v>
+        <v>0.009916694319999999</v>
       </c>
       <c r="R6">
-        <v>0.5709627380369999</v>
+        <v>0.08925024887999999</v>
       </c>
       <c r="S6">
-        <v>2.36120100880945E-05</v>
+        <v>2.892397280376468E-06</v>
       </c>
       <c r="T6">
-        <v>2.36120100880945E-05</v>
+        <v>2.892397280376466E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>14.345437</v>
       </c>
       <c r="I7">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J7">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>5.792929999999999</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N7">
-        <v>17.37879</v>
+        <v>0.110783</v>
       </c>
       <c r="O7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P7">
-        <v>0.9092391618261221</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q7">
-        <v>27.70070412013666</v>
+        <v>0.1765811719078889</v>
       </c>
       <c r="R7">
-        <v>249.30633708123</v>
+        <v>1.589230547171</v>
       </c>
       <c r="S7">
-        <v>0.01030999635182221</v>
+        <v>5.150334223391362E-05</v>
       </c>
       <c r="T7">
-        <v>0.01030999635182221</v>
+        <v>5.15033422339136E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>14.345437</v>
       </c>
       <c r="I8">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J8">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5062776666666666</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N8">
-        <v>1.518833</v>
+        <v>17.37879</v>
       </c>
       <c r="O8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P8">
-        <v>0.07946367059351396</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q8">
-        <v>2.420924790557888</v>
+        <v>27.70070412013666</v>
       </c>
       <c r="R8">
-        <v>21.788323115021</v>
+        <v>249.30633708123</v>
       </c>
       <c r="S8">
-        <v>0.0009010502278367588</v>
+        <v>0.008079450538271355</v>
       </c>
       <c r="T8">
-        <v>0.0009010502278367588</v>
+        <v>0.008079450538271353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>14.345437</v>
       </c>
       <c r="I9">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J9">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05870933333333334</v>
+        <v>0.006821</v>
       </c>
       <c r="N9">
-        <v>0.176128</v>
+        <v>0.020463</v>
       </c>
       <c r="O9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P9">
-        <v>0.009214823074225033</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q9">
-        <v>0.2807370142151111</v>
+        <v>0.03261674192566667</v>
       </c>
       <c r="R9">
-        <v>2.526633127936</v>
+        <v>0.2935506773309999</v>
       </c>
       <c r="S9">
-        <v>0.0001044882317729682</v>
+        <v>9.513308830168656E-06</v>
       </c>
       <c r="T9">
-        <v>0.0001044882317729682</v>
+        <v>9.513308830168653E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.763626</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H10">
-        <v>14.290878</v>
+        <v>14.345437</v>
       </c>
       <c r="I10">
-        <v>0.01129602143527803</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J10">
-        <v>0.01129602143527803</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.013267</v>
+        <v>0.208416</v>
       </c>
       <c r="N10">
-        <v>0.039801</v>
+        <v>0.625248</v>
       </c>
       <c r="O10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P10">
-        <v>0.00208234450613889</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q10">
-        <v>0.063199026142</v>
+        <v>0.996606199264</v>
       </c>
       <c r="R10">
-        <v>0.568791235278</v>
+        <v>8.969455793376</v>
       </c>
       <c r="S10">
-        <v>2.352220817697835E-05</v>
+        <v>0.0002906796324803447</v>
       </c>
       <c r="T10">
-        <v>2.352220817697835E-05</v>
+        <v>0.0002906796324803446</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.763626</v>
+        <v>4.781812333333333</v>
       </c>
       <c r="H11">
-        <v>14.290878</v>
+        <v>14.345437</v>
       </c>
       <c r="I11">
-        <v>0.01129602143527803</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J11">
-        <v>0.01129602143527803</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.792929999999999</v>
+        <v>0.050388</v>
       </c>
       <c r="N11">
-        <v>17.37879</v>
+        <v>0.151164</v>
       </c>
       <c r="O11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P11">
-        <v>0.9092391618261221</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q11">
-        <v>27.59535196418</v>
+        <v>0.240945959852</v>
       </c>
       <c r="R11">
-        <v>248.35816767762</v>
+        <v>2.168513638668</v>
       </c>
       <c r="S11">
-        <v>0.01027078506178211</v>
+        <v>7.027658779277794E-05</v>
       </c>
       <c r="T11">
-        <v>0.01027078506178211</v>
+        <v>7.02765877927779E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H12">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I12">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J12">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5062776666666666</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N12">
-        <v>1.518833</v>
+        <v>0.110783</v>
       </c>
       <c r="O12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P12">
-        <v>0.07946367059351396</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q12">
-        <v>2.411717456152667</v>
+        <v>0.4601105902707779</v>
       </c>
       <c r="R12">
-        <v>21.705457105374</v>
+        <v>4.140995312437</v>
       </c>
       <c r="S12">
-        <v>0.0008976233263502064</v>
+        <v>0.0001342002261063553</v>
       </c>
       <c r="T12">
-        <v>0.0008976233263502065</v>
+        <v>0.0001342002261063552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H13">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I13">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J13">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05870933333333334</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N13">
-        <v>0.176128</v>
+        <v>17.37879</v>
       </c>
       <c r="O13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P13">
-        <v>0.009214823074225033</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q13">
-        <v>0.2796693067093334</v>
+        <v>72.17863142442333</v>
       </c>
       <c r="R13">
-        <v>2.517023760384</v>
+        <v>649.60768281981</v>
       </c>
       <c r="S13">
-        <v>0.0001040908389687406</v>
+        <v>0.02105230538489539</v>
       </c>
       <c r="T13">
-        <v>0.0001040908389687406</v>
+        <v>0.02105230538489538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5728033333333333</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H14">
-        <v>1.71841</v>
+        <v>37.379339</v>
       </c>
       <c r="I14">
-        <v>0.001358292765118849</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J14">
-        <v>0.001358292765118849</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,43 +1305,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.013267</v>
+        <v>0.006821</v>
       </c>
       <c r="N14">
-        <v>0.039801</v>
+        <v>0.020463</v>
       </c>
       <c r="O14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P14">
-        <v>0.00208234450613889</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q14">
-        <v>0.007599381823333333</v>
+        <v>0.08498815710633334</v>
       </c>
       <c r="R14">
-        <v>0.06839443641</v>
+        <v>0.7648934139569999</v>
       </c>
       <c r="S14">
-        <v>2.828433477173437E-06</v>
+        <v>2.478845334405412E-05</v>
       </c>
       <c r="T14">
-        <v>2.828433477173437E-06</v>
+        <v>2.478845334405411E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5728033333333333</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H15">
-        <v>1.71841</v>
+        <v>37.379339</v>
       </c>
       <c r="I15">
-        <v>0.001358292765118849</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J15">
-        <v>0.001358292765118849</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.792929999999999</v>
+        <v>0.208416</v>
       </c>
       <c r="N15">
-        <v>17.37879</v>
+        <v>0.625248</v>
       </c>
       <c r="O15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P15">
-        <v>0.9092391618261221</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q15">
-        <v>3.318209613766666</v>
+        <v>2.596817439008</v>
       </c>
       <c r="R15">
-        <v>29.8638865239</v>
+        <v>23.371356951072</v>
       </c>
       <c r="S15">
-        <v>0.001235012975271148</v>
+        <v>0.0007574124457050849</v>
       </c>
       <c r="T15">
-        <v>0.001235012975271148</v>
+        <v>0.0007574124457050846</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5728033333333333</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H16">
-        <v>1.71841</v>
+        <v>37.379339</v>
       </c>
       <c r="I16">
-        <v>0.001358292765118849</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J16">
-        <v>0.001358292765118849</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5062776666666666</v>
+        <v>0.050388</v>
       </c>
       <c r="N16">
-        <v>1.518833</v>
+        <v>0.151164</v>
       </c>
       <c r="O16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P16">
-        <v>0.07946367059351396</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q16">
-        <v>0.2899975350588889</v>
+        <v>0.627823377844</v>
       </c>
       <c r="R16">
-        <v>2.60997781553</v>
+        <v>5.650410400596</v>
       </c>
       <c r="S16">
-        <v>0.0001079349288569574</v>
+        <v>0.0001831169311098371</v>
       </c>
       <c r="T16">
-        <v>0.0001079349288569574</v>
+        <v>0.000183116931109837</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H17">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I17">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J17">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.05870933333333334</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N17">
-        <v>0.176128</v>
+        <v>0.110783</v>
       </c>
       <c r="O17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P17">
-        <v>0.009214823074225033</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q17">
-        <v>0.03362890183111111</v>
+        <v>0.01176355440111111</v>
       </c>
       <c r="R17">
-        <v>0.30266011648</v>
+        <v>0.10587198961</v>
       </c>
       <c r="S17">
-        <v>1.251642751357009E-05</v>
+        <v>3.431070037997744E-06</v>
       </c>
       <c r="T17">
-        <v>1.251642751357009E-05</v>
+        <v>3.431070037997742E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>411.212972</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H18">
-        <v>1233.638916</v>
+        <v>0.95567</v>
       </c>
       <c r="I18">
-        <v>0.9751123505867978</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J18">
-        <v>0.9751123505867979</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.013267</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N18">
-        <v>0.039801</v>
+        <v>17.37879</v>
       </c>
       <c r="O18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P18">
-        <v>0.00208234450613889</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q18">
-        <v>5.455562499524</v>
+        <v>1.845376471033333</v>
       </c>
       <c r="R18">
-        <v>49.100062495716</v>
+        <v>16.6083882393</v>
       </c>
       <c r="S18">
-        <v>0.002030519846112598</v>
+        <v>0.0005382400338107362</v>
       </c>
       <c r="T18">
-        <v>0.002030519846112598</v>
+        <v>0.0005382400338107361</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>411.212972</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H19">
-        <v>1233.638916</v>
+        <v>0.95567</v>
       </c>
       <c r="I19">
-        <v>0.9751123505867978</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J19">
-        <v>0.9751123505867979</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>5.792929999999999</v>
+        <v>0.006821</v>
       </c>
       <c r="N19">
-        <v>17.37879</v>
+        <v>0.020463</v>
       </c>
       <c r="O19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P19">
-        <v>0.9092391618261221</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q19">
-        <v>2382.12796188796</v>
+        <v>0.002172875023333333</v>
       </c>
       <c r="R19">
-        <v>21439.15165699164</v>
+        <v>0.01955587521</v>
       </c>
       <c r="S19">
-        <v>0.8866103363338397</v>
+        <v>6.337613730224657E-07</v>
       </c>
       <c r="T19">
-        <v>0.8866103363338398</v>
+        <v>6.337613730224654E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>411.212972</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H20">
-        <v>1233.638916</v>
+        <v>0.95567</v>
       </c>
       <c r="I20">
-        <v>0.9751123505867978</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J20">
-        <v>0.9751123505867979</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5062776666666666</v>
+        <v>0.208416</v>
       </c>
       <c r="N20">
-        <v>1.518833</v>
+        <v>0.625248</v>
       </c>
       <c r="O20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089322</v>
       </c>
       <c r="P20">
-        <v>0.07946367059351396</v>
+        <v>0.03419187805089321</v>
       </c>
       <c r="Q20">
-        <v>208.1879439672253</v>
+        <v>0.06639230624</v>
       </c>
       <c r="R20">
-        <v>1873.691495705028</v>
+        <v>0.5975307561600001</v>
       </c>
       <c r="S20">
-        <v>0.0774860066186964</v>
+        <v>1.936461080777748E-05</v>
       </c>
       <c r="T20">
-        <v>0.07748600661869641</v>
+        <v>1.936461080777747E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>411.212972</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H21">
-        <v>1233.638916</v>
+        <v>0.95567</v>
       </c>
       <c r="I21">
-        <v>0.9751123505867978</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J21">
-        <v>0.9751123505867979</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05870933333333334</v>
+        <v>0.050388</v>
       </c>
       <c r="N21">
-        <v>0.176128</v>
+        <v>0.151164</v>
       </c>
       <c r="O21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711458</v>
       </c>
       <c r="P21">
-        <v>0.009214823074225033</v>
+        <v>0.008266449558711456</v>
       </c>
       <c r="Q21">
-        <v>24.14203944413867</v>
+        <v>0.01605143332</v>
       </c>
       <c r="R21">
-        <v>217.278354997248</v>
+        <v>0.14446289988</v>
       </c>
       <c r="S21">
-        <v>0.008985487788149034</v>
+        <v>4.681713541101891E-06</v>
       </c>
       <c r="T21">
-        <v>0.008985487788149034</v>
+        <v>4.681713541101889E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1777,22 +1777,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.334376</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H22">
-        <v>1.003128</v>
+        <v>1621.922363</v>
       </c>
       <c r="I22">
-        <v>0.0007929082726986811</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J22">
-        <v>0.0007929082726986811</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.013267</v>
+        <v>0.03692766666666667</v>
       </c>
       <c r="N22">
-        <v>0.039801</v>
+        <v>0.110783</v>
       </c>
       <c r="O22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135638</v>
       </c>
       <c r="P22">
-        <v>0.00208234450613889</v>
+        <v>0.006058202227135636</v>
       </c>
       <c r="Q22">
-        <v>0.004436166392</v>
+        <v>19.96460279335878</v>
       </c>
       <c r="R22">
-        <v>0.039925497528</v>
+        <v>179.681425140229</v>
       </c>
       <c r="S22">
-        <v>1.651108185526175E-06</v>
+        <v>0.005823065727340818</v>
       </c>
       <c r="T22">
-        <v>1.651108185526175E-06</v>
+        <v>0.005823065727340815</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.334376</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H23">
-        <v>1.003128</v>
+        <v>1621.922363</v>
       </c>
       <c r="I23">
-        <v>0.0007929082726986811</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J23">
-        <v>0.0007929082726986811</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,27 +1869,27 @@
         <v>17.37879</v>
       </c>
       <c r="O23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516544</v>
       </c>
       <c r="P23">
-        <v>0.9092391618261221</v>
+        <v>0.9503644447516543</v>
       </c>
       <c r="Q23">
-        <v>1.93701676168</v>
+        <v>3131.894238097862</v>
       </c>
       <c r="R23">
-        <v>17.43315085512</v>
+        <v>28187.04814288077</v>
       </c>
       <c r="S23">
-        <v>0.000720943253273547</v>
+        <v>0.9134780285030493</v>
       </c>
       <c r="T23">
-        <v>0.000720943253273547</v>
+        <v>0.913478028503049</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,489 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.334376</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H24">
-        <v>1.003128</v>
+        <v>1621.922363</v>
       </c>
       <c r="I24">
-        <v>0.0007929082726986811</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J24">
-        <v>0.0007929082726986811</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5062776666666666</v>
+        <v>0.006821</v>
       </c>
       <c r="N24">
-        <v>1.518833</v>
+        <v>0.020463</v>
       </c>
       <c r="O24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="P24">
-        <v>0.07946367059351396</v>
+        <v>0.001119025411605359</v>
       </c>
       <c r="Q24">
-        <v>0.1692871010693333</v>
+        <v>3.687710812674333</v>
       </c>
       <c r="R24">
-        <v>1.523583909624</v>
+        <v>33.189397314069</v>
       </c>
       <c r="S24">
-        <v>6.300740179260013E-05</v>
+        <v>0.001075592771260709</v>
       </c>
       <c r="T24">
-        <v>6.300740179260013E-05</v>
+        <v>0.001075592771260709</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>540.6407876666666</v>
+      </c>
+      <c r="H25">
+        <v>1621.922363</v>
+      </c>
+      <c r="I25">
+        <v>0.961187083068702</v>
+      </c>
+      <c r="J25">
+        <v>0.9611870830687018</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.208416</v>
+      </c>
+      <c r="N25">
+        <v>0.625248</v>
+      </c>
+      <c r="O25">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P25">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q25">
+        <v>112.678190402336</v>
+      </c>
+      <c r="R25">
+        <v>1014.103713621024</v>
+      </c>
+      <c r="S25">
+        <v>0.03286479152837882</v>
+      </c>
+      <c r="T25">
+        <v>0.03286479152837881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>540.6407876666666</v>
+      </c>
+      <c r="H26">
+        <v>1621.922363</v>
+      </c>
+      <c r="I26">
+        <v>0.961187083068702</v>
+      </c>
+      <c r="J26">
+        <v>0.9611870830687018</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.050388</v>
+      </c>
+      <c r="N26">
+        <v>0.151164</v>
+      </c>
+      <c r="O26">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P26">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q26">
+        <v>27.241808008948</v>
+      </c>
+      <c r="R26">
+        <v>245.176272080532</v>
+      </c>
+      <c r="S26">
+        <v>0.007945604538672425</v>
+      </c>
+      <c r="T26">
+        <v>0.007945604538672421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.334376</v>
-      </c>
-      <c r="H25">
-        <v>1.003128</v>
-      </c>
-      <c r="I25">
-        <v>0.0007929082726986811</v>
-      </c>
-      <c r="J25">
-        <v>0.0007929082726986811</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.05870933333333334</v>
-      </c>
-      <c r="N25">
-        <v>0.176128</v>
-      </c>
-      <c r="O25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="P25">
-        <v>0.009214823074225033</v>
-      </c>
-      <c r="Q25">
-        <v>0.01963099204266667</v>
-      </c>
-      <c r="R25">
-        <v>0.176678928384</v>
-      </c>
-      <c r="S25">
-        <v>7.306509447007721E-06</v>
-      </c>
-      <c r="T25">
-        <v>7.306509447007721E-06</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.074222333333334</v>
+      </c>
+      <c r="H27">
+        <v>12.222667</v>
+      </c>
+      <c r="I27">
+        <v>0.007243422933832552</v>
+      </c>
+      <c r="J27">
+        <v>0.007243422933832551</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.03692766666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.110783</v>
+      </c>
+      <c r="O27">
+        <v>0.006058202227135638</v>
+      </c>
+      <c r="P27">
+        <v>0.006058202227135636</v>
+      </c>
+      <c r="Q27">
+        <v>0.1504515242512223</v>
+      </c>
+      <c r="R27">
+        <v>1.354063718261</v>
+      </c>
+      <c r="S27">
+        <v>4.388212094982973E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.388212094982971E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.074222333333334</v>
+      </c>
+      <c r="H28">
+        <v>12.222667</v>
+      </c>
+      <c r="I28">
+        <v>0.007243422933832552</v>
+      </c>
+      <c r="J28">
+        <v>0.007243422933832551</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N28">
+        <v>17.37879</v>
+      </c>
+      <c r="O28">
+        <v>0.9503644447516544</v>
+      </c>
+      <c r="P28">
+        <v>0.9503644447516543</v>
+      </c>
+      <c r="Q28">
+        <v>23.60168478143667</v>
+      </c>
+      <c r="R28">
+        <v>212.41516303293</v>
+      </c>
+      <c r="S28">
+        <v>0.006883891614613173</v>
+      </c>
+      <c r="T28">
+        <v>0.006883891614613171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.074222333333334</v>
+      </c>
+      <c r="H29">
+        <v>12.222667</v>
+      </c>
+      <c r="I29">
+        <v>0.007243422933832552</v>
+      </c>
+      <c r="J29">
+        <v>0.007243422933832551</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006821</v>
+      </c>
+      <c r="N29">
+        <v>0.020463</v>
+      </c>
+      <c r="O29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="P29">
+        <v>0.001119025411605359</v>
+      </c>
+      <c r="Q29">
+        <v>0.02779027053566667</v>
+      </c>
+      <c r="R29">
+        <v>0.250112434821</v>
+      </c>
+      <c r="S29">
+        <v>8.105574329963671E-06</v>
+      </c>
+      <c r="T29">
+        <v>8.105574329963668E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.074222333333334</v>
+      </c>
+      <c r="H30">
+        <v>12.222667</v>
+      </c>
+      <c r="I30">
+        <v>0.007243422933832552</v>
+      </c>
+      <c r="J30">
+        <v>0.007243422933832551</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.208416</v>
+      </c>
+      <c r="N30">
+        <v>0.625248</v>
+      </c>
+      <c r="O30">
+        <v>0.03419187805089322</v>
+      </c>
+      <c r="P30">
+        <v>0.03419187805089321</v>
+      </c>
+      <c r="Q30">
+        <v>0.8491331218240002</v>
+      </c>
+      <c r="R30">
+        <v>7.642198096416001</v>
+      </c>
+      <c r="S30">
+        <v>0.0002476662336246458</v>
+      </c>
+      <c r="T30">
+        <v>0.0002476662336246457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.074222333333334</v>
+      </c>
+      <c r="H31">
+        <v>12.222667</v>
+      </c>
+      <c r="I31">
+        <v>0.007243422933832552</v>
+      </c>
+      <c r="J31">
+        <v>0.007243422933832551</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.050388</v>
+      </c>
+      <c r="N31">
+        <v>0.151164</v>
+      </c>
+      <c r="O31">
+        <v>0.008266449558711458</v>
+      </c>
+      <c r="P31">
+        <v>0.008266449558711456</v>
+      </c>
+      <c r="Q31">
+        <v>0.205291914932</v>
+      </c>
+      <c r="R31">
+        <v>1.847627234388</v>
+      </c>
+      <c r="S31">
+        <v>5.987739031494055E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.987739031494053E-05</v>
       </c>
     </row>
   </sheetData>
